--- a/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.414918486709188</v>
+        <v>-3.40413904928156</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.472036639954621</v>
+        <v>-4.708185553765833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.4708403090658353</v>
+        <v>-0.1137692113720314</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.085202588140954</v>
+        <v>-1.853577632105743</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.526042062777873</v>
+        <v>-0.5153628795920451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3889376144041692</v>
+        <v>-0.399447876585929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06539246822038265</v>
+        <v>-0.01745208183486683</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.282621723525381</v>
+        <v>-0.2580773471666779</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.105813401900642</v>
+        <v>0.9791274091792893</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.844057189337093</v>
+        <v>1.858593636658784</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.347381743905267</v>
+        <v>5.44615617147439</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.630039545215161</v>
+        <v>2.755014839273399</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2739712535373154</v>
+        <v>0.2934371030580151</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2303544531430201</v>
+        <v>0.2179481448428264</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.196089998975514</v>
+        <v>1.190344478412996</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.5588878523336269</v>
+        <v>0.5972247048148954</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-0.1611138755558336</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9582770102853938</v>
+        <v>0.9582770102853924</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2283133276795974</v>
@@ -749,7 +749,7 @@
         <v>-0.01905885999110741</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1255161411961719</v>
+        <v>0.1255161411961717</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.182815518311498</v>
+        <v>-4.352417673407857</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.058840309756334</v>
+        <v>-1.924061915213449</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.744051413958035</v>
+        <v>-2.719135698223176</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.760345628964679</v>
+        <v>-1.857186058758905</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4653970250232755</v>
+        <v>-0.4636516001344572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2365713435348575</v>
+        <v>-0.2230308626798822</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.2803804806206883</v>
+        <v>-0.280460658402883</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1967623710634211</v>
+        <v>-0.2037036994567832</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6793676993294456</v>
+        <v>0.6795500871726237</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.618609563683214</v>
+        <v>2.803193244450423</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.275107383620041</v>
+        <v>2.421291063785826</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.313278468535678</v>
+        <v>3.437400255532822</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09608269469196744</v>
+        <v>0.1255859075742719</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4107064394234205</v>
+        <v>0.4546292625700966</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3243548988961355</v>
+        <v>0.3513542141598092</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5486805201047585</v>
+        <v>0.5536136229146766</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.1881401690831105</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.100027856847526</v>
+        <v>-0.1000278568475274</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.06895220476008594</v>
@@ -849,7 +849,7 @@
         <v>0.02762064099623974</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.01567897825133853</v>
+        <v>-0.01567897825133874</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.267661556500541</v>
+        <v>-3.038934386559822</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.328256741041733</v>
+        <v>-6.683732840261307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.397548040579904</v>
+        <v>-2.512891508208781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.814116259535565</v>
+        <v>-2.816079229288809</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3902033978823553</v>
+        <v>-0.3630815929415519</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4875097684414957</v>
+        <v>-0.5074273436754391</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3034881815463795</v>
+        <v>-0.3066140698662554</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3497235328714839</v>
+        <v>-0.3557413550118204</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.283003901778164</v>
+        <v>2.315084796928798</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04023181125650648</v>
+        <v>-0.3918526461085046</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.609381147665185</v>
+        <v>3.026499155148551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.722957842709356</v>
+        <v>2.317253169969364</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4026339685428441</v>
+        <v>0.4208997533147749</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005318199747107679</v>
+        <v>-0.02729301759461436</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4637023346661364</v>
+        <v>0.5675298739618992</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5453673700183644</v>
+        <v>0.4680854666389813</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.3967466310387052</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5458536914584047</v>
+        <v>0.5458536914584033</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1637361038347703</v>
@@ -949,7 +949,7 @@
         <v>0.04478504838237118</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.06614250577990836</v>
+        <v>0.0661425057799082</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.237817818620147</v>
+        <v>-1.01021003422719</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.638542310015313</v>
+        <v>-3.999949221801018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.017105079179545</v>
+        <v>-2.040339249924559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.850901266526743</v>
+        <v>-2.071846696632055</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1493681318814568</v>
+        <v>-0.1213951134011814</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3141801039539894</v>
+        <v>-0.331411192067229</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1999602793856507</v>
+        <v>-0.2114740039021832</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1877075741878953</v>
+        <v>-0.2049490927168756</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.345779075076286</v>
+        <v>3.633792682318343</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.873773865911321</v>
+        <v>2.000740159078828</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.9443561639511</v>
+        <v>2.887129212315676</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.8421122728592</v>
+        <v>2.97297549496564</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5668954681336459</v>
+        <v>0.5893844700569568</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2225801418108132</v>
+        <v>0.2417361104346444</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3805878083199646</v>
+        <v>0.3749117029015688</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4211777005497225</v>
+        <v>0.4507452086122983</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.08284537357038721</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.07576132804343329</v>
+        <v>0.07576132804343327</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.711476365191145</v>
+        <v>-1.848516377337497</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.603764104191439</v>
+        <v>-2.58972472087145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6089132452139678</v>
+        <v>-0.6693154118063223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7559738761700685</v>
+        <v>-0.7173595568875217</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2259228513920367</v>
+        <v>-0.244501971801703</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2517546957822935</v>
+        <v>-0.2526878345897547</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.07198216845185318</v>
+        <v>-0.07905150088331346</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.09380571743312735</v>
+        <v>-0.0914135642381267</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7862892395329533</v>
+        <v>0.733799006381563</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3066625097657593</v>
+        <v>0.285251776718243</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.013455741702373</v>
+        <v>1.986316457236846</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.772997617079914</v>
+        <v>1.867957441027557</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1271168489783965</v>
+        <v>0.1170871431458041</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03485954855299427</v>
+        <v>0.03115672697176034</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2838380150947195</v>
+        <v>0.2810799712842249</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2749641623571583</v>
+        <v>0.2827593165105718</v>
       </c>
     </row>
     <row r="19">
